--- a/backend/prompt/chatai_carefullwork/reclutamiento/workflow.xlsx
+++ b/backend/prompt/chatai_carefullwork/reclutamiento/workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django Works\ChatWA\backend\prompt\chatai_mcodes_db\servicio_gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django Works\ChatWA\backend\prompt\chatai_carefullwork\reclutamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9E40E-89FF-4AA1-848E-31B36B1D36F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1213223D-F5C4-4693-ADDE-65F0B487E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>GOTOID3</t>
   </si>
   <si>
-    <t>¿Desea contratar el servicio de gas?</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -66,76 +63,65 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>Escriba su nombre</t>
-  </si>
-  <si>
     <t>Cancelar</t>
   </si>
   <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>Pasos del workflow(obligatorio)</t>
+  </si>
+  <si>
+    <t>Tipo del workflow(obligatorio)</t>
+  </si>
+  <si>
+    <t>Texto del workflow(obligatorio)</t>
+  </si>
+  <si>
+    <t>Boton 1 workflow(obligatorio)</t>
+  </si>
+  <si>
+    <t>Ir al siguiente paso(obligatorio)</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Boton 2 workflow(opcional)</t>
+  </si>
+  <si>
+    <t>Ir al siguiente paso(opcional)</t>
+  </si>
+  <si>
+    <t>Etiqueta(opcional)</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Siguiente paso(opcional)</t>
+  </si>
+  <si>
+    <t>NEXTID</t>
+  </si>
+  <si>
+    <t>¿Desea registrarse en CarefullWork?</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>confirm</t>
-  </si>
-  <si>
-    <t>Confirma que su nombre es:</t>
-  </si>
-  <si>
-    <t>Escriba su número de cédula o pasaporte</t>
-  </si>
-  <si>
-    <t>Confirma que su número de cédula o pasaporte es:</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>Su solicitud fue realizada exitosamente. Gracias por confiar en nuestra empresa.</t>
-  </si>
-  <si>
-    <t>Cancelar solicitud</t>
-  </si>
-  <si>
-    <t>Pasos del workflow(obligatorio)</t>
-  </si>
-  <si>
-    <t>Tipo del workflow(obligatorio)</t>
-  </si>
-  <si>
-    <t>Texto del workflow(obligatorio)</t>
-  </si>
-  <si>
-    <t>Boton 1 workflow(obligatorio)</t>
-  </si>
-  <si>
-    <t>Ir al siguiente paso(obligatorio)</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>Boton 2 workflow(opcional)</t>
-  </si>
-  <si>
-    <t>Ir al siguiente paso(opcional)</t>
-  </si>
-  <si>
-    <t>Etiqueta(opcional)</t>
-  </si>
-  <si>
-    <t>Nombre:</t>
-  </si>
-  <si>
-    <t>Identificación:</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>Siguiente paso(opcional)</t>
-  </si>
-  <si>
-    <t>NEXTID</t>
+    <t>Gracias por confiar en CarefullWork. 
+Nuestros especialistas estarán analizando su perfil y buscando opciones laborales para ud. 
+Cualquier otra inquietud estaré por aquí para ayudarte.</t>
+  </si>
+  <si>
+    <t>Por favor llene el siguiente formulario.
+Al teminar, presione el botón "Completado" para continuar con el proceso.
+https://docs.google.com/forms/d/e/1FAIpQLSczro8v8g_duNOrMUcmwnAvUrjLaI9QxhZB6I0z9G9UJVb2Pw/viewform?usp=pp_url</t>
   </si>
 </sst>
 </file>
@@ -177,8 +163,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -481,202 +476,156 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5" xr:uid="{6464F653-9D87-4678-9273-71C09A687580}">
+      <formula1>"start,data,confirm,finish,finish_request"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
